--- a/input/onderwijsdoelen/lookup-onderwijsdoelen-S.xlsx
+++ b/input/onderwijsdoelen/lookup-onderwijsdoelen-S.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="10500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="S-SL" sheetId="2" r:id="rId1"/>
@@ -148,21 +148,12 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-burgerschap-en-samenleven</t>
   </si>
   <si>
-    <t>burgerschap en samenleven</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-cultureel-bewustzijn-en-culturele-expressie</t>
   </si>
   <si>
-    <t>cultureel bewustzijn en culturele expressie</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-digitale-competenties-en-mediawijsheid</t>
   </si>
   <si>
-    <t>digitale competenties en mediawijsheid</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-duurzaamheid</t>
   </si>
   <si>
@@ -217,15 +208,9 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-sociaal-relationele-vorming</t>
   </si>
   <si>
-    <t>sociaal-relationele vorming</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-stem</t>
   </si>
   <si>
-    <t>STEM (sleutelcompetentie)</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-zelfbewustzijn</t>
   </si>
   <si>
@@ -310,15 +295,6 @@
     <t>text-not-related</t>
   </si>
   <si>
-    <t>economisch-financiële competenties</t>
-  </si>
-  <si>
-    <t>lichamelijk, geestelijk en emotioneel welzijn</t>
-  </si>
-  <si>
-    <t>leren leren</t>
-  </si>
-  <si>
     <t>1. Competenties op het vlak van lichamelijk, geestelijk en emotioneel bewustzijn/gezondheid|Een fysiek actieve levensstijl opbouwen, onderhouden en versterken</t>
   </si>
   <si>
@@ -565,9 +541,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-bronnenkritiek</t>
   </si>
   <si>
-    <t>bronnenkritiek</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-communicatie</t>
   </si>
   <si>
@@ -607,9 +580,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-geld-en-consumptie</t>
   </si>
   <si>
-    <t>geld en consumptie</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-gezonde-levensstijl</t>
   </si>
   <si>
@@ -625,15 +595,9 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-historische-dynamieken</t>
   </si>
   <si>
-    <t>historische dynamieken</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-historische-tijdlijn</t>
   </si>
   <si>
-    <t>historische tijdlijn</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-identiteit</t>
   </si>
   <si>
@@ -643,9 +607,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-informatie-verwerven</t>
   </si>
   <si>
-    <t>informatie verwerven</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-keuzes-maken</t>
   </si>
   <si>
@@ -655,33 +616,18 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-kunstbeleving-en-waardering</t>
   </si>
   <si>
-    <t>kunstbeleving en waardering</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-kunstconcepten</t>
   </si>
   <si>
-    <t>kunstconcepten</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-kunstcreatie</t>
   </si>
   <si>
-    <t>kunstcreatie</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-kunstgeschiedenis-en-kunststromingen</t>
   </si>
   <si>
-    <t>kunstgeschiedenis en kunststromingen</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-landschap-en-plaats</t>
   </si>
   <si>
-    <t>landschap en plaats</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-leren-leren</t>
   </si>
   <si>
@@ -691,9 +637,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-maatschappijkritisch-denken</t>
   </si>
   <si>
-    <t>maatschappijkritisch denken</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-mediawijsheid</t>
   </si>
   <si>
@@ -703,9 +646,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-mens-en-leefomgeving</t>
   </si>
   <si>
-    <t>mens en leefomgeving</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-mentaal-welbevinden</t>
   </si>
   <si>
@@ -715,15 +655,9 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-ondernemen-en-organisatie</t>
   </si>
   <si>
-    <t>ondernemen en organisatie</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-onderzoeken</t>
   </si>
   <si>
-    <t>onderzoeken</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-opportuniteiten-verkennen</t>
   </si>
   <si>
@@ -742,9 +676,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-reguleren</t>
   </si>
   <si>
-    <t>reguleren</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-relaties</t>
   </si>
   <si>
@@ -760,21 +691,12 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-ruimte-en-tijd</t>
   </si>
   <si>
-    <t>ruimte en tijd</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-ruimtelijk-onderzoek</t>
   </si>
   <si>
-    <t>ruimtelijk onderzoek</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-samenwerken</t>
   </si>
   <si>
-    <t>samenwerken</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-sport-en-beweging</t>
   </si>
   <si>
@@ -784,9 +706,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-stem-onderzoek</t>
   </si>
   <si>
-    <t>STEM-onderzoek</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-taal-en-cultuur</t>
   </si>
   <si>
@@ -820,45 +739,24 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-veiligheid</t>
   </si>
   <si>
-    <t>veiligheid</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wiskunde-algebra-analyse</t>
   </si>
   <si>
-    <t>wiskunde - algebra, analyse</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wiskunde-getallenleer</t>
   </si>
   <si>
-    <t>wiskunde - getallenleer</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wiskunde-kansrekenen-statistiek</t>
   </si>
   <si>
-    <t>wiskunde - kansrekenen, statistiek</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wiskunde-meetkunde-en-metend-rekenen</t>
   </si>
   <si>
-    <t>wiskunde - meetkunde en metend rekenen</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wiskunde-modelleren-en-heuristiek</t>
   </si>
   <si>
-    <t>wiskunde - modelleren en heuristiek</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wiskunde-redeneren</t>
   </si>
   <si>
-    <t>wiskunde - redeneren</t>
-  </si>
-  <si>
     <t>text-related</t>
   </si>
   <si>
@@ -868,12 +766,6 @@
     <t>text-related3</t>
   </si>
   <si>
-    <t>biologie (bouwsteen)</t>
-  </si>
-  <si>
-    <t>chemie (bouwsteen)</t>
-  </si>
-  <si>
     <t>communicatie (Nederlands)</t>
   </si>
   <si>
@@ -883,15 +775,9 @@
     <t>communicatie (andere talen)</t>
   </si>
   <si>
-    <t>economie (bouwsteen)</t>
-  </si>
-  <si>
     <t>filosofie (bouwsteen)</t>
   </si>
   <si>
-    <t>fysica (bouwsteen)</t>
-  </si>
-  <si>
     <t>literatuur (Nederlands)</t>
   </si>
   <si>
@@ -922,9 +808,6 @@
     <t>definitionNl</t>
   </si>
   <si>
-    <t>politiek</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wd-biologie</t>
   </si>
   <si>
@@ -1136,6 +1019,123 @@
   </si>
   <si>
     <t>democratie en mensenrechten</t>
+  </si>
+  <si>
+    <t>burgerschap</t>
+  </si>
+  <si>
+    <t>cultureel bewustzijn</t>
+  </si>
+  <si>
+    <t>digitale competenties</t>
+  </si>
+  <si>
+    <t>economische en financiële competenties</t>
+  </si>
+  <si>
+    <t>lichamelijke en geestelijke gezondheid</t>
+  </si>
+  <si>
+    <t>sociaal-relationele competenties</t>
+  </si>
+  <si>
+    <t>wiskunde - natuurwetenschappen - technologie - STEM</t>
+  </si>
+  <si>
+    <t>levende systemen</t>
+  </si>
+  <si>
+    <t>historische bronnenkritiek</t>
+  </si>
+  <si>
+    <t>materie (bouw, structuur, eigenschappen)</t>
+  </si>
+  <si>
+    <t>algemene economie</t>
+  </si>
+  <si>
+    <t>energie en materie (interacties)</t>
+  </si>
+  <si>
+    <t>geld en budget</t>
+  </si>
+  <si>
+    <t>verleden en heden</t>
+  </si>
+  <si>
+    <t>historisch referentiekader</t>
+  </si>
+  <si>
+    <t>informatie verwerven en verwerken</t>
+  </si>
+  <si>
+    <t>cultuur beleven en waarderen</t>
+  </si>
+  <si>
+    <t>cultuur waarnemen en conceptualiseren</t>
+  </si>
+  <si>
+    <t>artistiek werk creëren</t>
+  </si>
+  <si>
+    <t>cultuur contextualiseren</t>
+  </si>
+  <si>
+    <t>plaatsbegrip</t>
+  </si>
+  <si>
+    <t>reflecteren over leren</t>
+  </si>
+  <si>
+    <t>duurzaamheid en systeemdenken</t>
+  </si>
+  <si>
+    <t>mens en aarde (interacties)</t>
+  </si>
+  <si>
+    <t>onderneming en organisatie</t>
+  </si>
+  <si>
+    <t>onderzoeken en probleemoplossen</t>
+  </si>
+  <si>
+    <t>democratische besluitvorming</t>
+  </si>
+  <si>
+    <t>reguleren van het leren</t>
+  </si>
+  <si>
+    <t>situeren in ruimte en tijd</t>
+  </si>
+  <si>
+    <t>geografische methoden en technieken</t>
+  </si>
+  <si>
+    <t>samenleren</t>
+  </si>
+  <si>
+    <t>multi- en interdisciplinaire STEM-vaardigheden</t>
+  </si>
+  <si>
+    <t>veilige levensstijl</t>
+  </si>
+  <si>
+    <t>algebra, analyse en discrete structuren</t>
+  </si>
+  <si>
+    <t>getallenleer</t>
+  </si>
+  <si>
+    <t>kansrekenen, statistiek</t>
+  </si>
+  <si>
+    <t>meetkunde en metend rekenen</t>
+  </si>
+  <si>
+    <t>modelleren en problemen oplossen</t>
+  </si>
+  <si>
+    <t>redeneren en abstraheren</t>
   </si>
 </sst>
 </file>
@@ -1619,13 +1619,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1949,24 +1950,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="81" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="178" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>33</v>
@@ -1975,96 +1976,96 @@
         <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>44</v>
@@ -2073,130 +2074,130 @@
         <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>335</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>336</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2204,10 +2205,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
@@ -2223,31 +2224,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" customWidth="1"/>
-    <col min="4" max="4" width="83" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="249.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="208.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -2256,923 +2257,923 @@
         <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" t="s">
+        <v>344</v>
+      </c>
+      <c r="G23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" t="s">
+        <v>346</v>
+      </c>
+      <c r="G27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>347</v>
+      </c>
+      <c r="G28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" t="s">
+        <v>349</v>
+      </c>
+      <c r="G30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" t="s">
+        <v>352</v>
+      </c>
+      <c r="G34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" t="s">
+        <v>353</v>
+      </c>
+      <c r="G36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" t="s">
+        <v>220</v>
+      </c>
+      <c r="F47" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" t="s">
+        <v>255</v>
+      </c>
+      <c r="G52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" t="s">
+        <v>228</v>
+      </c>
+      <c r="G53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" t="s">
+        <v>363</v>
+      </c>
+      <c r="G58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" t="s">
+        <v>364</v>
+      </c>
+      <c r="G59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
+        <v>366</v>
+      </c>
+      <c r="G61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" t="s">
+        <v>367</v>
+      </c>
+      <c r="G62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" t="s">
         <v>368</v>
       </c>
-      <c r="G9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>286</v>
-      </c>
-      <c r="G16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="G63" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" t="s">
-        <v>287</v>
-      </c>
-      <c r="G31" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" t="s">
-        <v>289</v>
-      </c>
-      <c r="G32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" t="s">
-        <v>224</v>
-      </c>
-      <c r="G35" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" t="s">
-        <v>226</v>
-      </c>
-      <c r="G36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" t="s">
-        <v>228</v>
-      </c>
-      <c r="G37" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F38" t="s">
-        <v>230</v>
-      </c>
-      <c r="G38" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" t="s">
-        <v>232</v>
-      </c>
-      <c r="G39" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" t="s">
-        <v>234</v>
-      </c>
-      <c r="G40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" t="s">
-        <v>297</v>
-      </c>
-      <c r="G41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" t="s">
-        <v>236</v>
-      </c>
-      <c r="F42" t="s">
-        <v>237</v>
-      </c>
-      <c r="G42" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" t="s">
-        <v>242</v>
-      </c>
-      <c r="F45" t="s">
-        <v>243</v>
-      </c>
-      <c r="G45" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" t="s">
-        <v>244</v>
-      </c>
-      <c r="F46" t="s">
-        <v>245</v>
-      </c>
-      <c r="G46" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" t="s">
-        <v>246</v>
-      </c>
-      <c r="F47" t="s">
-        <v>247</v>
-      </c>
-      <c r="G47" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" t="s">
-        <v>248</v>
-      </c>
-      <c r="F48" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" t="s">
-        <v>252</v>
-      </c>
-      <c r="F49" t="s">
-        <v>290</v>
-      </c>
-      <c r="G49" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" t="s">
-        <v>292</v>
-      </c>
-      <c r="G50" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" t="s">
-        <v>293</v>
-      </c>
-      <c r="G51" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" t="s">
-        <v>294</v>
-      </c>
-      <c r="F52" t="s">
-        <v>295</v>
-      </c>
-      <c r="G52" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" t="s">
-        <v>254</v>
-      </c>
-      <c r="F53" t="s">
-        <v>255</v>
-      </c>
-      <c r="G53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" t="s">
-        <v>256</v>
-      </c>
-      <c r="F54" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" t="s">
-        <v>258</v>
-      </c>
-      <c r="F55" t="s">
-        <v>259</v>
-      </c>
-      <c r="G55" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" t="s">
-        <v>264</v>
-      </c>
-      <c r="F58" t="s">
-        <v>265</v>
-      </c>
-      <c r="G58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" t="s">
-        <v>267</v>
-      </c>
-      <c r="G59" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" t="s">
-        <v>268</v>
-      </c>
-      <c r="F60" t="s">
-        <v>269</v>
-      </c>
-      <c r="G60" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" t="s">
-        <v>270</v>
-      </c>
-      <c r="F61" t="s">
-        <v>271</v>
-      </c>
-      <c r="G61" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62" t="s">
-        <v>272</v>
-      </c>
-      <c r="F62" t="s">
-        <v>273</v>
-      </c>
-      <c r="G62" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" t="s">
-        <v>274</v>
-      </c>
-      <c r="F63" t="s">
-        <v>275</v>
-      </c>
-      <c r="G63" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3198,10 +3199,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>33</v>
@@ -3210,172 +3211,172 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>24</v>
+      <c r="B9" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>25</v>
+      <c r="B10" t="s">
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>26</v>
+      <c r="B11" t="s">
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>32</v>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -3383,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -3398,15 +3399,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/onderwijsdoelen/lookup-onderwijsdoelen-S.xlsx
+++ b/input/onderwijsdoelen/lookup-onderwijsdoelen-S.xlsx
@@ -9,34 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="10500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="10500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S-SL" sheetId="2" r:id="rId1"/>
     <sheet name="S-BS" sheetId="8" r:id="rId2"/>
-    <sheet name="S-WD" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S-SL'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S-WD'!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'S-SL'!#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'S-WD'!#REF!</definedName>
-    <definedName name="lookup_column_S_WD" localSheetId="3">Sheet1!#REF!</definedName>
+    <definedName name="lookup_column_S_WD" localSheetId="2">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="322">
   <si>
     <t>Nederlands</t>
   </si>
   <si>
-    <t>Wiskunde</t>
-  </si>
-  <si>
     <t>7. Burgerschapscompetenties met inbegrip van competenties inzake samenleven</t>
   </si>
   <si>
@@ -85,60 +79,12 @@
     <t>14. Zelfbewustzijn en zelfexpressie, zelfsturing en wendbaarheid</t>
   </si>
   <si>
-    <t>Aardwetenschappen</t>
-  </si>
-  <si>
-    <t>Algemene doorstroomcompetenties</t>
-  </si>
-  <si>
-    <t>Bewegingswetenschappen</t>
-  </si>
-  <si>
-    <t>Biologie</t>
-  </si>
-  <si>
-    <t>Chemie</t>
-  </si>
-  <si>
-    <t>Economie</t>
-  </si>
-  <si>
-    <t>Filosofie</t>
-  </si>
-  <si>
-    <t>Fysica</t>
-  </si>
-  <si>
-    <t>Gedragswetenschappen</t>
-  </si>
-  <si>
-    <t>Informaticawetenschappen</t>
-  </si>
-  <si>
-    <t>Klassieke talen</t>
-  </si>
-  <si>
-    <t>Kunst en cultuur</t>
-  </si>
-  <si>
-    <t>Moderne talen</t>
-  </si>
-  <si>
-    <t>STEM</t>
-  </si>
-  <si>
-    <t>Sociale wetenschappen</t>
-  </si>
-  <si>
     <t>concept</t>
   </si>
   <si>
     <t>prefLabelNl</t>
   </si>
   <si>
-    <t>wiskunde</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/c-andere-talen</t>
   </si>
   <si>
@@ -217,24 +163,6 @@
     <t>zelfbewustzijn</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-aardwetenschappen</t>
-  </si>
-  <si>
-    <t>aardwetenschappen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-algemene-doorstroomcompetenties</t>
-  </si>
-  <si>
-    <t>algemene doorstroomcompetenties</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-bewegingswetenschappen</t>
-  </si>
-  <si>
-    <t>bewegingswetenschappen</t>
-  </si>
-  <si>
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-biologie</t>
   </si>
   <si>
@@ -250,48 +178,6 @@
     <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-fysica</t>
   </si>
   <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-gedragswetenschappen</t>
-  </si>
-  <si>
-    <t>gedragswetenschappen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-informaticawetenschappen</t>
-  </si>
-  <si>
-    <t>informaticawetenschappen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-klassieke-talen</t>
-  </si>
-  <si>
-    <t>klassieke talen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-kunst-en-cultuur</t>
-  </si>
-  <si>
-    <t>kunst en cultuur</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-moderne-talen</t>
-  </si>
-  <si>
-    <t>moderne talen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-sociale-wetenschappen</t>
-  </si>
-  <si>
-    <t>sociale wetenschappen</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-stem</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wiskunde</t>
-  </si>
-  <si>
     <t>text-not-related</t>
   </si>
   <si>
@@ -806,36 +692,6 @@
   </si>
   <si>
     <t>definitionNl</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wd-biologie</t>
-  </si>
-  <si>
-    <t>biologie (wetenschapsdomein)</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wd-chemie</t>
-  </si>
-  <si>
-    <t>chemie (wetenschapsdomein)</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wd-economie</t>
-  </si>
-  <si>
-    <t>economie (wetenschapsdomein)</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wd-filosofie</t>
-  </si>
-  <si>
-    <t>filosofie (wetenschapsdomein)</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/curr1/s-wd-fysica</t>
-  </si>
-  <si>
-    <t>fysica (wetenschapsdomein)</t>
   </si>
   <si>
     <t>Competenties betreffende religie en levensbeschouwing</t>
@@ -1619,13 +1475,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1950,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1964,254 +1819,254 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2229,9 +2084,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="249.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="249.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="208.42578125" bestFit="1" customWidth="1"/>
@@ -2239,941 +2094,941 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
         <v>142</v>
       </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>339</v>
-      </c>
-      <c r="G8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" t="s">
-        <v>329</v>
-      </c>
-      <c r="G11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
-      </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>108</v>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>297</v>
+      </c>
+      <c r="G23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" t="s">
-        <v>342</v>
-      </c>
-      <c r="G19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" t="s">
-        <v>186</v>
-      </c>
-      <c r="G21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" t="s">
-        <v>344</v>
-      </c>
-      <c r="G23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" t="s">
-        <v>345</v>
-      </c>
-      <c r="G25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="D36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" t="s">
-        <v>346</v>
-      </c>
-      <c r="G27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" t="s">
-        <v>347</v>
-      </c>
-      <c r="G28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" t="s">
-        <v>348</v>
-      </c>
-      <c r="G29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" t="s">
-        <v>349</v>
-      </c>
-      <c r="G30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" t="s">
-        <v>350</v>
-      </c>
-      <c r="G31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" t="s">
-        <v>351</v>
-      </c>
-      <c r="G32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" t="s">
-        <v>352</v>
-      </c>
-      <c r="G34" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" t="s">
-        <v>353</v>
-      </c>
-      <c r="G36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" t="s">
-        <v>354</v>
-      </c>
-      <c r="G38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" t="s">
-        <v>355</v>
-      </c>
-      <c r="G39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F40" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>118</v>
+      <c r="B43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>141</v>
+      <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="F45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" t="s">
-        <v>358</v>
-      </c>
-      <c r="G46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47" t="s">
-        <v>359</v>
-      </c>
-      <c r="G47" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" t="s">
-        <v>360</v>
-      </c>
-      <c r="G48" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" t="s">
-        <v>361</v>
-      </c>
-      <c r="G50" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" t="s">
-        <v>225</v>
-      </c>
-      <c r="F51" t="s">
-        <v>252</v>
-      </c>
-      <c r="G51" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" t="s">
-        <v>255</v>
-      </c>
       <c r="G52" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" t="s">
+        <v>315</v>
+      </c>
+      <c r="G57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>199</v>
+      </c>
+      <c r="F58" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" t="s">
-        <v>227</v>
-      </c>
-      <c r="F53" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="G58" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s">
+        <v>317</v>
+      </c>
+      <c r="G59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="G60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" t="s">
-        <v>231</v>
-      </c>
-      <c r="F55" t="s">
-        <v>232</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="G61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" t="s">
-        <v>234</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="G62" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" t="s">
-        <v>235</v>
-      </c>
-      <c r="F57" t="s">
-        <v>362</v>
-      </c>
-      <c r="G57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" t="s">
-        <v>236</v>
-      </c>
-      <c r="F58" t="s">
-        <v>363</v>
-      </c>
-      <c r="G58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" t="s">
-        <v>237</v>
-      </c>
-      <c r="F59" t="s">
-        <v>364</v>
-      </c>
-      <c r="G59" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" t="s">
-        <v>238</v>
-      </c>
-      <c r="F60" t="s">
-        <v>365</v>
-      </c>
-      <c r="G60" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" t="s">
-        <v>366</v>
-      </c>
-      <c r="G61" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E62" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" t="s">
-        <v>367</v>
-      </c>
-      <c r="G62" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" t="s">
-        <v>241</v>
-      </c>
-      <c r="F63" t="s">
-        <v>368</v>
-      </c>
       <c r="G63" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3184,222 +3039,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
